--- a/prowler术语表.xlsx
+++ b/prowler术语表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YLSH\Documents\GitHub\prowler-cn-localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8883D6F5-28C5-4B48-B598-777C4E775530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8744F65B-049B-41CF-B975-73139EE93D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="24945" windowHeight="15705" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="4455" windowWidth="24945" windowHeight="15705" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1000,7 +1000,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>"(</t>
     </r>
@@ -1034,7 +1034,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1047,7 +1047,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1064,7 +1064,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>"(</t>
     </r>
@@ -1081,7 +1081,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1094,7 +1094,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1111,7 +1111,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>"(</t>
     </r>
@@ -1128,7 +1128,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2269,7 +2269,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>·</t>
     </r>
@@ -2378,7 +2378,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2409,7 +2409,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2458,7 +2458,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2501,7 +2501,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2637,7 +2637,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>·</t>
     </r>
@@ -2776,7 +2776,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>-</t>
     </r>
@@ -3106,7 +3106,7 @@
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3148,7 +3148,7 @@
     <font>
       <sz val="9"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3407,8 +3407,8 @@
   <dimension ref="A1:C340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E305" sqref="E305"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
